--- a/state_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
+++ b/state_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U186"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.531803418160676</v>
+        <v>0.630916923849028</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4</v>
+        <v>4.41656648211751</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1875</v>
+        <v>1.35</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>0.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>1.055</v>
       </c>
       <c r="N2" t="n">
-        <v>1.135</v>
+        <v>1.185</v>
       </c>
       <c r="O2" t="n">
         <v>1870776.934</v>
@@ -651,7 +651,7 @@
         <v>0.012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0132622035219143</v>
+        <v>0.0132697018300984</v>
       </c>
       <c r="H3" t="n">
         <v>0.037</v>
@@ -732,7 +732,7 @@
         <v>0.012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0132622035219143</v>
+        <v>0.0132697018300984</v>
       </c>
       <c r="H4" t="n">
         <v>0.037</v>
@@ -1153,7 +1153,7 @@
         <v>0.01652</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0218785127350836</v>
+        <v>0.0218838174504268</v>
       </c>
       <c r="H9" t="n">
         <v>0.0987521922493068</v>
@@ -1234,7 +1234,7 @@
         <v>0.01652</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0218785127350836</v>
+        <v>0.0218838174504268</v>
       </c>
       <c r="H10" t="n">
         <v>0.0987521922493068</v>
@@ -1311,7 +1311,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.124056165245883</v>
+        <v>0.124032034327389</v>
       </c>
       <c r="H11" t="n">
         <v>0.847</v>
@@ -1388,7 +1388,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.124056165245883</v>
+        <v>0.124032034327389</v>
       </c>
       <c r="H12" t="n">
         <v>0.847</v>
@@ -1619,7 +1619,7 @@
         <v>0.048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0601898234984024</v>
+        <v>0.0601681373554118</v>
       </c>
       <c r="H15" t="n">
         <v>0.372</v>
@@ -1696,7 +1696,7 @@
         <v>0.048</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0601898234984024</v>
+        <v>0.0601681373554118</v>
       </c>
       <c r="H16" t="n">
         <v>0.372</v>
@@ -1858,7 +1858,7 @@
         <v>0.011</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0162858615900228</v>
+        <v>0.0162884769867652</v>
       </c>
       <c r="H18" t="n">
         <v>0.211</v>
@@ -1939,7 +1939,7 @@
         <v>0.011</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0162858615900228</v>
+        <v>0.0162884769867652</v>
       </c>
       <c r="H19" t="n">
         <v>0.211</v>
@@ -2360,7 +2360,7 @@
         <v>0.01722</v>
       </c>
       <c r="G24" t="n">
-        <v>0.024021840746832</v>
+        <v>0.0240250549325209</v>
       </c>
       <c r="H24" t="n">
         <v>0.0987521922493068</v>
@@ -2441,7 +2441,7 @@
         <v>0.01722</v>
       </c>
       <c r="G25" t="n">
-        <v>0.024021840746832</v>
+        <v>0.0240250549325209</v>
       </c>
       <c r="H25" t="n">
         <v>0.0987521922493068</v>
@@ -2522,7 +2522,7 @@
         <v>0.018</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07893143697053941</v>
+        <v>0.0789317812473643</v>
       </c>
       <c r="H26" t="n">
         <v>0.4559</v>
@@ -2603,7 +2603,7 @@
         <v>0.018</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07893143697053941</v>
+        <v>0.0789317812473643</v>
       </c>
       <c r="H27" t="n">
         <v>0.4559</v>
@@ -2680,7 +2680,7 @@
         <v>0.0585</v>
       </c>
       <c r="G28" t="n">
-        <v>0.100804957979611</v>
+        <v>0.100808316366953</v>
       </c>
       <c r="H28" t="n">
         <v>0.543</v>
@@ -2757,7 +2757,7 @@
         <v>0.0585</v>
       </c>
       <c r="G29" t="n">
-        <v>0.100804957979611</v>
+        <v>0.100808316366953</v>
       </c>
       <c r="H29" t="n">
         <v>0.543</v>
@@ -2988,7 +2988,7 @@
         <v>0.045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0647950866562972</v>
+        <v>0.0647734005133065</v>
       </c>
       <c r="H32" t="n">
         <v>0.513</v>
@@ -3065,7 +3065,7 @@
         <v>0.045</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0647950866562972</v>
+        <v>0.0647734005133065</v>
       </c>
       <c r="H33" t="n">
         <v>0.513</v>
@@ -3227,7 +3227,7 @@
         <v>0.01</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0145451750586251</v>
+        <v>0.0145462384987037</v>
       </c>
       <c r="H35" t="n">
         <v>0.211</v>
@@ -3308,7 +3308,7 @@
         <v>0.01</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0145451750586251</v>
+        <v>0.0145462384987037</v>
       </c>
       <c r="H36" t="n">
         <v>0.211</v>
@@ -3729,7 +3729,7 @@
         <v>0.01652</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0249518934229515</v>
+        <v>0.024953554204789</v>
       </c>
       <c r="H41" t="n">
         <v>0.0987521922493068</v>
@@ -3810,7 +3810,7 @@
         <v>0.01652</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0249518934229515</v>
+        <v>0.024953554204789</v>
       </c>
       <c r="H42" t="n">
         <v>0.0987521922493068</v>
@@ -3891,7 +3891,7 @@
         <v>0.018</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07407860933395111</v>
+        <v>0.07407886180362271</v>
       </c>
       <c r="H43" t="n">
         <v>0.4559</v>
@@ -3972,7 +3972,7 @@
         <v>0.018</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07407860933395111</v>
+        <v>0.07407886180362271</v>
       </c>
       <c r="H44" t="n">
         <v>0.4559</v>
@@ -4049,7 +4049,7 @@
         <v>0.059</v>
       </c>
       <c r="G45" t="n">
-        <v>0.100658536585366</v>
+        <v>0.100673170731707</v>
       </c>
       <c r="H45" t="n">
         <v>0.543</v>
@@ -4126,7 +4126,7 @@
         <v>0.059</v>
       </c>
       <c r="G46" t="n">
-        <v>0.100658536585366</v>
+        <v>0.100673170731707</v>
       </c>
       <c r="H46" t="n">
         <v>0.543</v>
@@ -4357,7 +4357,7 @@
         <v>0.045</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0702047398430954</v>
+        <v>0.0701864271001255</v>
       </c>
       <c r="H49" t="n">
         <v>0.513</v>
@@ -4434,7 +4434,7 @@
         <v>0.045</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0702047398430954</v>
+        <v>0.0701864271001255</v>
       </c>
       <c r="H50" t="n">
         <v>0.513</v>
@@ -4515,7 +4515,7 @@
         <v>0.4</v>
       </c>
       <c r="G51" t="n">
-        <v>0.555071611307693</v>
+        <v>0.555033053811518</v>
       </c>
       <c r="H51" t="n">
         <v>1.85</v>
@@ -4596,7 +4596,7 @@
         <v>0.01</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0129324955052375</v>
+        <v>0.0129348027166183</v>
       </c>
       <c r="H52" t="n">
         <v>0.211</v>
@@ -4677,7 +4677,7 @@
         <v>0.01</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0129324955052375</v>
+        <v>0.0129348027166183</v>
       </c>
       <c r="H53" t="n">
         <v>0.211</v>
@@ -5098,7 +5098,7 @@
         <v>0.01174</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0216100160399651</v>
+        <v>0.0216132237932577</v>
       </c>
       <c r="H58" t="n">
         <v>0.0987521922493068</v>
@@ -5179,7 +5179,7 @@
         <v>0.01174</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0216100160399651</v>
+        <v>0.0216132237932577</v>
       </c>
       <c r="H59" t="n">
         <v>0.0987521922493068</v>
@@ -5260,7 +5260,7 @@
         <v>0.017</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0667226632673158</v>
+        <v>0.06672382947086281</v>
       </c>
       <c r="H60" t="n">
         <v>0.4559</v>
@@ -5341,7 +5341,7 @@
         <v>0.017</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0667226632673158</v>
+        <v>0.06672382947086281</v>
       </c>
       <c r="H61" t="n">
         <v>0.4559</v>
@@ -5418,7 +5418,7 @@
         <v>0.0585</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09661406392177629</v>
+        <v>0.0966291370503721</v>
       </c>
       <c r="H62" t="n">
         <v>0.543</v>
@@ -5495,7 +5495,7 @@
         <v>0.0585</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09661406392177629</v>
+        <v>0.0966291370503721</v>
       </c>
       <c r="H63" t="n">
         <v>0.543</v>
@@ -5726,7 +5726,7 @@
         <v>0.045</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0811791805778823</v>
+        <v>0.08116472314922191</v>
       </c>
       <c r="H66" t="n">
         <v>0.735</v>
@@ -5803,7 +5803,7 @@
         <v>0.045</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0811791805778823</v>
+        <v>0.08116472314922191</v>
       </c>
       <c r="H67" t="n">
         <v>0.735</v>
@@ -5884,7 +5884,7 @@
         <v>0.4</v>
       </c>
       <c r="G68" t="n">
-        <v>0.494882057896451</v>
+        <v>0.494842017419654</v>
       </c>
       <c r="H68" t="n">
         <v>1.85</v>
@@ -5965,7 +5965,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0125703158302023</v>
+        <v>0.0125730969282747</v>
       </c>
       <c r="H69" t="n">
         <v>0.211</v>
@@ -6046,7 +6046,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0125703158302023</v>
+        <v>0.0125730969282747</v>
       </c>
       <c r="H70" t="n">
         <v>0.211</v>
@@ -6467,7 +6467,7 @@
         <v>0.00681</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0172490372413711</v>
+        <v>0.0172518356488232</v>
       </c>
       <c r="H75" t="n">
         <v>0.0987521922493068</v>
@@ -6478,7 +6478,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.00522</v>
+        <v>0.00523</v>
       </c>
       <c r="M75" t="n">
         <v>0.03283</v>
@@ -6548,7 +6548,7 @@
         <v>0.00681</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0172490372413711</v>
+        <v>0.0172518356488232</v>
       </c>
       <c r="H76" t="n">
         <v>0.0987521922493068</v>
@@ -6559,7 +6559,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.00522</v>
+        <v>0.00523</v>
       </c>
       <c r="M76" t="n">
         <v>0.03283</v>
@@ -6629,7 +6629,7 @@
         <v>0.0163</v>
       </c>
       <c r="G77" t="n">
-        <v>0.06729198555400211</v>
+        <v>0.0672948397405241</v>
       </c>
       <c r="H77" t="n">
         <v>0.4559</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00154</v>
+        <v>0.00155</v>
       </c>
       <c r="M77" t="n">
         <v>0.14134</v>
@@ -6710,7 +6710,7 @@
         <v>0.0163</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06729198555400211</v>
+        <v>0.0672948397405241</v>
       </c>
       <c r="H78" t="n">
         <v>0.4559</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00154</v>
+        <v>0.00155</v>
       </c>
       <c r="M78" t="n">
         <v>0.14134</v>
@@ -6787,7 +6787,7 @@
         <v>0.039</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0930231368930354</v>
+        <v>0.0930356110520305</v>
       </c>
       <c r="H79" t="n">
         <v>0.543</v>
@@ -6798,10 +6798,10 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.007</v>
+        <v>0.0072</v>
       </c>
       <c r="M79" t="n">
-        <v>0.20107</v>
+        <v>0.20097</v>
       </c>
       <c r="N79" t="n">
         <v>0.28064</v>
@@ -6864,7 +6864,7 @@
         <v>0.039</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0930231368930354</v>
+        <v>0.0930356110520305</v>
       </c>
       <c r="H80" t="n">
         <v>0.543</v>
@@ -6875,10 +6875,10 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.007</v>
+        <v>0.0072</v>
       </c>
       <c r="M80" t="n">
-        <v>0.20107</v>
+        <v>0.20097</v>
       </c>
       <c r="N80" t="n">
         <v>0.28064</v>
@@ -7253,7 +7253,7 @@
         <v>0.22</v>
       </c>
       <c r="G85" t="n">
-        <v>0.416350333541479</v>
+        <v>0.416309507957294</v>
       </c>
       <c r="H85" t="n">
         <v>1.85</v>
@@ -7334,7 +7334,7 @@
         <v>0.008</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0121901516917312</v>
+        <v>0.012192979927059</v>
       </c>
       <c r="H86" t="n">
         <v>0.211</v>
@@ -7415,7 +7415,7 @@
         <v>0.008</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0121901516917312</v>
+        <v>0.012192979927059</v>
       </c>
       <c r="H87" t="n">
         <v>0.211</v>
@@ -7833,10 +7833,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.00634</v>
+        <v>0.00632</v>
       </c>
       <c r="G92" t="n">
-        <v>0.012862507965627</v>
+        <v>0.012860352378632</v>
       </c>
       <c r="H92" t="n">
         <v>0.07777397435562609</v>
@@ -7847,7 +7847,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>0.00522</v>
+        <v>0.00523</v>
       </c>
       <c r="M92" t="n">
         <v>0.02421</v>
@@ -7914,10 +7914,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.00634</v>
+        <v>0.00632</v>
       </c>
       <c r="G93" t="n">
-        <v>0.012862507965627</v>
+        <v>0.012860352378632</v>
       </c>
       <c r="H93" t="n">
         <v>0.07777397435562609</v>
@@ -7928,7 +7928,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.00522</v>
+        <v>0.00523</v>
       </c>
       <c r="M93" t="n">
         <v>0.02421</v>
@@ -7998,7 +7998,7 @@
         <v>0.008</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07376356310023249</v>
+        <v>0.0737662470303537</v>
       </c>
       <c r="H94" t="n">
         <v>0.4559</v>
@@ -8079,7 +8079,7 @@
         <v>0.008</v>
       </c>
       <c r="G95" t="n">
-        <v>0.07376356310023249</v>
+        <v>0.0737662470303537</v>
       </c>
       <c r="H95" t="n">
         <v>0.4559</v>
@@ -8156,7 +8156,7 @@
         <v>0.02</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0986197008925348</v>
+        <v>0.09862466795001611</v>
       </c>
       <c r="H96" t="n">
         <v>0.543</v>
@@ -8167,7 +8167,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.007</v>
+        <v>0.00718</v>
       </c>
       <c r="M96" t="n">
         <v>0.1868</v>
@@ -8233,7 +8233,7 @@
         <v>0.02</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0986197008925348</v>
+        <v>0.09862466795001611</v>
       </c>
       <c r="H97" t="n">
         <v>0.543</v>
@@ -8244,7 +8244,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.007</v>
+        <v>0.00718</v>
       </c>
       <c r="M97" t="n">
         <v>0.1868</v>
@@ -8622,7 +8622,7 @@
         <v>0.3</v>
       </c>
       <c r="G102" t="n">
-        <v>0.402323648112209</v>
+        <v>0.402200658288466</v>
       </c>
       <c r="H102" t="n">
         <v>2.2</v>
@@ -8703,7 +8703,7 @@
         <v>0.008</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0093883786509478</v>
+        <v>0.0093909172300918</v>
       </c>
       <c r="H103" t="n">
         <v>0.04</v>
@@ -8784,7 +8784,7 @@
         <v>0.008</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0093883786509478</v>
+        <v>0.0093909172300918</v>
       </c>
       <c r="H104" t="n">
         <v>0.04</v>
@@ -9205,7 +9205,7 @@
         <v>0.008359999999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0145345062569393</v>
+        <v>0.0145265209557259</v>
       </c>
       <c r="H109" t="n">
         <v>0.07777397435562609</v>
@@ -9286,7 +9286,7 @@
         <v>0.008359999999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0145345062569393</v>
+        <v>0.0145265209557259</v>
       </c>
       <c r="H110" t="n">
         <v>0.07777397435562609</v>
@@ -9367,7 +9367,7 @@
         <v>0.0268</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0852914866878445</v>
+        <v>0.0852939111469411</v>
       </c>
       <c r="H111" t="n">
         <v>0.51</v>
@@ -9448,7 +9448,7 @@
         <v>0.0268</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0852914866878445</v>
+        <v>0.0852939111469411</v>
       </c>
       <c r="H112" t="n">
         <v>0.51</v>
@@ -9525,7 +9525,7 @@
         <v>0.055</v>
       </c>
       <c r="G113" t="n">
-        <v>0.114531790104105</v>
+        <v>0.114519541058983</v>
       </c>
       <c r="H113" t="n">
         <v>0.52</v>
@@ -9536,7 +9536,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.0091</v>
+        <v>0.00903</v>
       </c>
       <c r="M113" t="n">
         <v>0.2236</v>
@@ -9602,7 +9602,7 @@
         <v>0.055</v>
       </c>
       <c r="G114" t="n">
-        <v>0.114531790104105</v>
+        <v>0.114519541058983</v>
       </c>
       <c r="H114" t="n">
         <v>0.52</v>
@@ -9613,7 +9613,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>0.0091</v>
+        <v>0.00903</v>
       </c>
       <c r="M114" t="n">
         <v>0.2236</v>
@@ -9988,16 +9988,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.31</v>
+        <v>0.335</v>
       </c>
       <c r="G119" t="n">
-        <v>0.751186680636294</v>
+        <v>0.941106080075874</v>
       </c>
       <c r="H119" t="n">
-        <v>4.3662497376081</v>
+        <v>11.2540976947966</v>
       </c>
       <c r="I119" t="n">
-        <v>3.98506</v>
+        <v>4.1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -10072,7 +10072,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>0.010032446447558</v>
+        <v>0.010034985026702</v>
       </c>
       <c r="H120" t="n">
         <v>0.04</v>
@@ -10153,7 +10153,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>0.010032446447558</v>
+        <v>0.010034985026702</v>
       </c>
       <c r="H121" t="n">
         <v>0.04</v>
@@ -10571,10 +10571,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.01109</v>
+        <v>0.01097</v>
       </c>
       <c r="G126" t="n">
-        <v>0.015749946966741</v>
+        <v>0.0157345866715356</v>
       </c>
       <c r="H126" t="n">
         <v>0.07027406886851439</v>
@@ -10585,7 +10585,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00963</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="M126" t="n">
         <v>0.02765</v>
@@ -10652,10 +10652,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.01109</v>
+        <v>0.01097</v>
       </c>
       <c r="G127" t="n">
-        <v>0.015749946966741</v>
+        <v>0.0157345866715356</v>
       </c>
       <c r="H127" t="n">
         <v>0.07027406886851439</v>
@@ -10666,7 +10666,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00963</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="M127" t="n">
         <v>0.02765</v>
@@ -10736,7 +10736,7 @@
         <v>0.04</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0926546157224499</v>
+        <v>0.09265602671138901</v>
       </c>
       <c r="H128" t="n">
         <v>0.51</v>
@@ -10747,7 +10747,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.0021</v>
+        <v>0.00208</v>
       </c>
       <c r="M128" t="n">
         <v>0.18876</v>
@@ -10817,7 +10817,7 @@
         <v>0.04</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0926546157224499</v>
+        <v>0.09265602671138901</v>
       </c>
       <c r="H129" t="n">
         <v>0.51</v>
@@ -10828,7 +10828,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.0021</v>
+        <v>0.00208</v>
       </c>
       <c r="M129" t="n">
         <v>0.18876</v>
@@ -10894,7 +10894,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>0.119973857988299</v>
+        <v>0.1199522895947</v>
       </c>
       <c r="H130" t="n">
         <v>0.52</v>
@@ -10971,7 +10971,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>0.119973857988299</v>
+        <v>0.1199522895947</v>
       </c>
       <c r="H131" t="n">
         <v>0.52</v>
@@ -11357,16 +11357,16 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.375</v>
+        <v>0.3822</v>
       </c>
       <c r="G136" t="n">
-        <v>0.901356807649437</v>
+        <v>1.09891462516247</v>
       </c>
       <c r="H136" t="n">
-        <v>4.3662497376081</v>
+        <v>11.2540976947966</v>
       </c>
       <c r="I136" t="n">
-        <v>4.07229</v>
+        <v>4.2</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -11441,7 +11441,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0105588388258128</v>
+        <v>0.0105600195387472</v>
       </c>
       <c r="H137" t="n">
         <v>0.04</v>
@@ -11522,7 +11522,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0105588388258128</v>
+        <v>0.0105600195387472</v>
       </c>
       <c r="H138" t="n">
         <v>0.04</v>
@@ -11943,7 +11943,7 @@
         <v>0.01119</v>
       </c>
       <c r="G143" t="n">
-        <v>0.016280284693123</v>
+        <v>0.016261088562391</v>
       </c>
       <c r="H143" t="n">
         <v>0.07027406886851439</v>
@@ -11954,7 +11954,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.01115</v>
+        <v>0.01106</v>
       </c>
       <c r="M143" t="n">
         <v>0.026</v>
@@ -12024,7 +12024,7 @@
         <v>0.01119</v>
       </c>
       <c r="G144" t="n">
-        <v>0.016280284693123</v>
+        <v>0.016261088562391</v>
       </c>
       <c r="H144" t="n">
         <v>0.07027406886851439</v>
@@ -12035,7 +12035,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.01115</v>
+        <v>0.01106</v>
       </c>
       <c r="M144" t="n">
         <v>0.026</v>
@@ -12105,7 +12105,7 @@
         <v>0.0445</v>
       </c>
       <c r="G145" t="n">
-        <v>0.10282052927104</v>
+        <v>0.102819115781736</v>
       </c>
       <c r="H145" t="n">
         <v>0.51</v>
@@ -12116,7 +12116,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.0027</v>
+        <v>0.00267</v>
       </c>
       <c r="M145" t="n">
         <v>0.215</v>
@@ -12186,7 +12186,7 @@
         <v>0.0445</v>
       </c>
       <c r="G146" t="n">
-        <v>0.10282052927104</v>
+        <v>0.102819115781736</v>
       </c>
       <c r="H146" t="n">
         <v>0.51</v>
@@ -12197,7 +12197,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.0027</v>
+        <v>0.00267</v>
       </c>
       <c r="M146" t="n">
         <v>0.215</v>
@@ -12263,7 +12263,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>0.121356880123917</v>
+        <v>0.121330584753865</v>
       </c>
       <c r="H147" t="n">
         <v>0.52</v>
@@ -12340,7 +12340,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>0.121356880123917</v>
+        <v>0.121330584753865</v>
       </c>
       <c r="H148" t="n">
         <v>0.52</v>
@@ -12729,13 +12729,13 @@
         <v>0.5</v>
       </c>
       <c r="G153" t="n">
-        <v>1.52366594657388</v>
+        <v>1.7031764945813</v>
       </c>
       <c r="H153" t="n">
-        <v>6.76526941864925</v>
+        <v>11.2540976947966</v>
       </c>
       <c r="I153" t="n">
-        <v>5.41059</v>
+        <v>6.69011</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -12743,10 +12743,10 @@
         <v>0.4</v>
       </c>
       <c r="M153" t="n">
-        <v>3.58584</v>
+        <v>3.59034</v>
       </c>
       <c r="N153" t="n">
-        <v>4.87108</v>
+        <v>5.27067</v>
       </c>
       <c r="O153" t="n">
         <v>1870776.934</v>
@@ -12810,7 +12810,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0108969333612841</v>
+        <v>0.010897482737868</v>
       </c>
       <c r="H154" t="n">
         <v>0.031</v>
@@ -12891,7 +12891,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0108969333612841</v>
+        <v>0.010897482737868</v>
       </c>
       <c r="H155" t="n">
         <v>0.031</v>
@@ -12972,7 +12972,7 @@
         <v>395</v>
       </c>
       <c r="G156" t="n">
-        <v>2051.38730145321</v>
+        <v>2061.88196803829</v>
       </c>
       <c r="H156" t="n">
         <v>31000</v>
@@ -13057,7 +13057,7 @@
         <v>395</v>
       </c>
       <c r="G157" t="n">
-        <v>2051.38730145321</v>
+        <v>2061.88196803829</v>
       </c>
       <c r="H157" t="n">
         <v>31000</v>
@@ -13142,7 +13142,7 @@
         <v>395</v>
       </c>
       <c r="G158" t="n">
-        <v>2051.38730145321</v>
+        <v>2061.88196803829</v>
       </c>
       <c r="H158" t="n">
         <v>31000</v>
@@ -13227,7 +13227,7 @@
         <v>395</v>
       </c>
       <c r="G159" t="n">
-        <v>2051.38730145321</v>
+        <v>2061.88196803829</v>
       </c>
       <c r="H159" t="n">
         <v>31000</v>
@@ -13312,7 +13312,7 @@
         <v>0.01211</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0265334717531958</v>
+        <v>0.0265131767325787</v>
       </c>
       <c r="H160" t="n">
         <v>0.51</v>
@@ -13323,7 +13323,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.01184</v>
+        <v>0.01181</v>
       </c>
       <c r="M160" t="n">
         <v>0.02769</v>
@@ -13393,7 +13393,7 @@
         <v>0.01211</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0265334717531958</v>
+        <v>0.0265131767325787</v>
       </c>
       <c r="H161" t="n">
         <v>0.51</v>
@@ -13404,7 +13404,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.01184</v>
+        <v>0.01181</v>
       </c>
       <c r="M161" t="n">
         <v>0.02769</v>
@@ -13474,7 +13474,7 @@
         <v>0.077</v>
       </c>
       <c r="G162" t="n">
-        <v>0.105025467790891</v>
+        <v>0.105019216876461</v>
       </c>
       <c r="H162" t="n">
         <v>0.51</v>
@@ -13555,7 +13555,7 @@
         <v>0.077</v>
       </c>
       <c r="G163" t="n">
-        <v>0.105025467790891</v>
+        <v>0.105019216876461</v>
       </c>
       <c r="H163" t="n">
         <v>0.51</v>
@@ -13632,7 +13632,7 @@
         <v>0.095</v>
       </c>
       <c r="G164" t="n">
-        <v>0.126161642645524</v>
+        <v>0.126129838763546</v>
       </c>
       <c r="H164" t="n">
         <v>0.52</v>
@@ -13709,7 +13709,7 @@
         <v>0.095</v>
       </c>
       <c r="G165" t="n">
-        <v>0.126161642645524</v>
+        <v>0.126129838763546</v>
       </c>
       <c r="H165" t="n">
         <v>0.52</v>
@@ -14098,13 +14098,13 @@
         <v>0.675</v>
       </c>
       <c r="G170" t="n">
-        <v>1.64433669614351</v>
+        <v>1.83411509113237</v>
       </c>
       <c r="H170" t="n">
-        <v>6.76526941864925</v>
+        <v>11.2540976947966</v>
       </c>
       <c r="I170" t="n">
-        <v>5.42758</v>
+        <v>6.77811</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -14112,10 +14112,10 @@
         <v>1.6</v>
       </c>
       <c r="M170" t="n">
-        <v>3.87771</v>
+        <v>3.89751</v>
       </c>
       <c r="N170" t="n">
-        <v>4.9923</v>
+        <v>5.53186</v>
       </c>
       <c r="O170" t="n">
         <v>1870776.934</v>
@@ -14179,7 +14179,7 @@
         <v>0.011</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0127778918534323</v>
+        <v>0.0127784723268039</v>
       </c>
       <c r="H171" t="n">
         <v>0.044</v>
@@ -14260,7 +14260,7 @@
         <v>0.011</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0127778918534323</v>
+        <v>0.0127784723268039</v>
       </c>
       <c r="H172" t="n">
         <v>0.044</v>
@@ -14341,7 +14341,7 @@
         <v>410</v>
       </c>
       <c r="G173" t="n">
-        <v>2331.78658266755</v>
+        <v>2342.87528698386</v>
       </c>
       <c r="H173" t="n">
         <v>31000</v>
@@ -14426,7 +14426,7 @@
         <v>410</v>
       </c>
       <c r="G174" t="n">
-        <v>2331.78658266755</v>
+        <v>2342.87528698386</v>
       </c>
       <c r="H174" t="n">
         <v>31000</v>
@@ -14511,7 +14511,7 @@
         <v>410</v>
       </c>
       <c r="G175" t="n">
-        <v>2331.78658266755</v>
+        <v>2342.87528698386</v>
       </c>
       <c r="H175" t="n">
         <v>31000</v>
@@ -14596,7 +14596,7 @@
         <v>410</v>
       </c>
       <c r="G176" t="n">
-        <v>2331.78658266755</v>
+        <v>2342.87528698386</v>
       </c>
       <c r="H176" t="n">
         <v>31000</v>
@@ -14678,10 +14678,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.01343</v>
+        <v>0.01333</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0311723657290605</v>
+        <v>0.0311566402299982</v>
       </c>
       <c r="H177" t="n">
         <v>0.51</v>
@@ -14692,7 +14692,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>0.01109</v>
+        <v>0.01097</v>
       </c>
       <c r="M177" t="n">
         <v>0.03628</v>
@@ -14759,10 +14759,10 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.01343</v>
+        <v>0.01333</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0311723657290605</v>
+        <v>0.0311566402299982</v>
       </c>
       <c r="H178" t="n">
         <v>0.51</v>
@@ -14773,7 +14773,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>0.01109</v>
+        <v>0.01097</v>
       </c>
       <c r="M178" t="n">
         <v>0.03628</v>
@@ -14843,7 +14843,7 @@
         <v>0.093</v>
       </c>
       <c r="G179" t="n">
-        <v>0.11952999310786</v>
+        <v>0.119521360499858</v>
       </c>
       <c r="H179" t="n">
         <v>0.51</v>
@@ -14924,7 +14924,7 @@
         <v>0.093</v>
       </c>
       <c r="G180" t="n">
-        <v>0.11952999310786</v>
+        <v>0.119521360499858</v>
       </c>
       <c r="H180" t="n">
         <v>0.51</v>
@@ -15001,7 +15001,7 @@
         <v>0.12</v>
       </c>
       <c r="G181" t="n">
-        <v>0.146087418510668</v>
+        <v>0.146060565367986</v>
       </c>
       <c r="H181" t="n">
         <v>0.53</v>
@@ -15078,7 +15078,7 @@
         <v>0.12</v>
       </c>
       <c r="G182" t="n">
-        <v>0.146087418510668</v>
+        <v>0.146060565367986</v>
       </c>
       <c r="H182" t="n">
         <v>0.53</v>
@@ -15437,6 +15437,1375 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 2)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.85048032799987</v>
+      </c>
+      <c r="H187" t="n">
+        <v>11.2540976947966</v>
+      </c>
+      <c r="I187" t="n">
+        <v>6.89822</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M187" t="n">
+        <v>4.1189</v>
+      </c>
+      <c r="N187" t="n">
+        <v>5.79305</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P187" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0137169811320755</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.01849</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.02804</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0137169811320755</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.01849</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.02804</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>310</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1492.63000396499</v>
+      </c>
+      <c r="H190" t="n">
+        <v>26346.3902101445</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6050</v>
+      </c>
+      <c r="J190" t="n">
+        <v>32.0754716981132</v>
+      </c>
+      <c r="K190" t="n">
+        <v>50.9433962264151</v>
+      </c>
+      <c r="L190" t="n">
+        <v>246</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2198</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4667.2</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>310</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1492.63000396499</v>
+      </c>
+      <c r="H191" t="n">
+        <v>26346.3902101445</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6050</v>
+      </c>
+      <c r="J191" t="n">
+        <v>32.0754716981132</v>
+      </c>
+      <c r="K191" t="n">
+        <v>50.9433962264151</v>
+      </c>
+      <c r="L191" t="n">
+        <v>246</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2198</v>
+      </c>
+      <c r="N191" t="n">
+        <v>4667.2</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>310</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1492.63000396499</v>
+      </c>
+      <c r="H192" t="n">
+        <v>26346.3902101445</v>
+      </c>
+      <c r="I192" t="n">
+        <v>6050</v>
+      </c>
+      <c r="J192" t="n">
+        <v>32.0754716981132</v>
+      </c>
+      <c r="K192" t="n">
+        <v>50.9433962264151</v>
+      </c>
+      <c r="L192" t="n">
+        <v>246</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2198</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4667.2</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>310</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1492.63000396499</v>
+      </c>
+      <c r="H193" t="n">
+        <v>26346.3902101445</v>
+      </c>
+      <c r="I193" t="n">
+        <v>6050</v>
+      </c>
+      <c r="J193" t="n">
+        <v>32.0754716981132</v>
+      </c>
+      <c r="K193" t="n">
+        <v>50.9433962264151</v>
+      </c>
+      <c r="L193" t="n">
+        <v>246</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2198</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4667.2</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.01536</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.032086417182152</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.04157</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.05835</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.01536</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.032086417182152</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.04157</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.05835</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.115258331698632</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.3282</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.24233</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.29286</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.115258331698632</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.3282</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.24233</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.29286</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.143065015122467</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.2649</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.143065015122467</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.2649</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.626792452830189</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.8398</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1.1256</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.626792452830189</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.8398</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1.1256</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.113792452830189</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.45755</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.10094</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.31004</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.113792452830189</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.45755</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.10094</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.31004</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
+++ b/state_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
@@ -570,13 +570,13 @@
         <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.630916923849028</v>
+        <v>0.534923191120908</v>
       </c>
       <c r="H2" t="n">
-        <v>4.41656648211751</v>
+        <v>1.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.35</v>
+        <v>1.1875</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>0.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.055</v>
+        <v>1.03123</v>
       </c>
       <c r="N2" t="n">
-        <v>1.185</v>
+        <v>1.135</v>
       </c>
       <c r="O2" t="n">
         <v>1870776.934</v>
@@ -9988,13 +9988,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.335</v>
+        <v>0.31</v>
       </c>
       <c r="G119" t="n">
-        <v>0.941106080075874</v>
+        <v>0.7688708202008681</v>
       </c>
       <c r="H119" t="n">
-        <v>11.2540976947966</v>
+        <v>5.08498355703797</v>
       </c>
       <c r="I119" t="n">
         <v>4.1</v>
@@ -11357,13 +11357,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.3822</v>
+        <v>0.375</v>
       </c>
       <c r="G136" t="n">
-        <v>1.09891462516247</v>
+        <v>0.919789954892463</v>
       </c>
       <c r="H136" t="n">
-        <v>11.2540976947966</v>
+        <v>5.08498355703797</v>
       </c>
       <c r="I136" t="n">
         <v>4.2</v>
@@ -12729,13 +12729,13 @@
         <v>0.5</v>
       </c>
       <c r="G153" t="n">
-        <v>1.7031764945813</v>
+        <v>1.49751140252869</v>
       </c>
       <c r="H153" t="n">
-        <v>11.2540976947966</v>
+        <v>5.62975646530342</v>
       </c>
       <c r="I153" t="n">
-        <v>6.69011</v>
+        <v>5.08886</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -12743,10 +12743,10 @@
         <v>0.4</v>
       </c>
       <c r="M153" t="n">
-        <v>3.59034</v>
+        <v>3.605</v>
       </c>
       <c r="N153" t="n">
-        <v>5.27067</v>
+        <v>4.91947</v>
       </c>
       <c r="O153" t="n">
         <v>1870776.934</v>
@@ -12972,10 +12972,10 @@
         <v>395</v>
       </c>
       <c r="G156" t="n">
-        <v>2061.88196803829</v>
+        <v>2459.97974277058</v>
       </c>
       <c r="H156" t="n">
-        <v>31000</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I156" t="n">
         <v>9160</v>
@@ -13057,10 +13057,10 @@
         <v>395</v>
       </c>
       <c r="G157" t="n">
-        <v>2061.88196803829</v>
+        <v>2459.97974277058</v>
       </c>
       <c r="H157" t="n">
-        <v>31000</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I157" t="n">
         <v>9160</v>
@@ -13142,10 +13142,10 @@
         <v>395</v>
       </c>
       <c r="G158" t="n">
-        <v>2061.88196803829</v>
+        <v>2459.97974277058</v>
       </c>
       <c r="H158" t="n">
-        <v>31000</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I158" t="n">
         <v>9160</v>
@@ -13227,10 +13227,10 @@
         <v>395</v>
       </c>
       <c r="G159" t="n">
-        <v>2061.88196803829</v>
+        <v>2459.97974277058</v>
       </c>
       <c r="H159" t="n">
-        <v>31000</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I159" t="n">
         <v>9160</v>
@@ -14098,13 +14098,13 @@
         <v>0.675</v>
       </c>
       <c r="G170" t="n">
-        <v>1.83411509113237</v>
+        <v>1.6165847053075</v>
       </c>
       <c r="H170" t="n">
-        <v>11.2540976947966</v>
+        <v>5.62975646530342</v>
       </c>
       <c r="I170" t="n">
-        <v>6.77811</v>
+        <v>5.08964</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -14112,10 +14112,10 @@
         <v>1.6</v>
       </c>
       <c r="M170" t="n">
-        <v>3.89751</v>
+        <v>3.962</v>
       </c>
       <c r="N170" t="n">
-        <v>5.53186</v>
+        <v>4.9636</v>
       </c>
       <c r="O170" t="n">
         <v>1870776.934</v>
@@ -14341,10 +14341,10 @@
         <v>410</v>
       </c>
       <c r="G173" t="n">
-        <v>2342.87528698386</v>
+        <v>2763.50689802175</v>
       </c>
       <c r="H173" t="n">
-        <v>31000</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I173" t="n">
         <v>9955</v>
@@ -14426,10 +14426,10 @@
         <v>410</v>
       </c>
       <c r="G174" t="n">
-        <v>2342.87528698386</v>
+        <v>2763.50689802175</v>
       </c>
       <c r="H174" t="n">
-        <v>31000</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I174" t="n">
         <v>9955</v>
@@ -14511,10 +14511,10 @@
         <v>410</v>
       </c>
       <c r="G175" t="n">
-        <v>2342.87528698386</v>
+        <v>2763.50689802175</v>
       </c>
       <c r="H175" t="n">
-        <v>31000</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I175" t="n">
         <v>9955</v>
@@ -14596,10 +14596,10 @@
         <v>410</v>
       </c>
       <c r="G176" t="n">
-        <v>2342.87528698386</v>
+        <v>2763.50689802175</v>
       </c>
       <c r="H176" t="n">
-        <v>31000</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I176" t="n">
         <v>9955</v>
@@ -15467,13 +15467,13 @@
         <v>0.6</v>
       </c>
       <c r="G187" t="n">
-        <v>1.85048032799987</v>
+        <v>1.61963175528776</v>
       </c>
       <c r="H187" t="n">
-        <v>11.2540976947966</v>
+        <v>5.62975646530342</v>
       </c>
       <c r="I187" t="n">
-        <v>6.89822</v>
+        <v>5.10696</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -15481,10 +15481,10 @@
         <v>1.6</v>
       </c>
       <c r="M187" t="n">
-        <v>4.1189</v>
+        <v>4.21301</v>
       </c>
       <c r="N187" t="n">
-        <v>5.79305</v>
+        <v>5.00774</v>
       </c>
       <c r="O187" t="n">
         <v>1870776.934</v>
@@ -15710,10 +15710,10 @@
         <v>310</v>
       </c>
       <c r="G190" t="n">
-        <v>1492.63000396499</v>
+        <v>1913.26161500288</v>
       </c>
       <c r="H190" t="n">
-        <v>26346.3902101445</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I190" t="n">
         <v>6050</v>
@@ -15795,10 +15795,10 @@
         <v>310</v>
       </c>
       <c r="G191" t="n">
-        <v>1492.63000396499</v>
+        <v>1913.26161500288</v>
       </c>
       <c r="H191" t="n">
-        <v>26346.3902101445</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I191" t="n">
         <v>6050</v>
@@ -15880,10 +15880,10 @@
         <v>310</v>
       </c>
       <c r="G192" t="n">
-        <v>1492.63000396499</v>
+        <v>1913.26161500288</v>
       </c>
       <c r="H192" t="n">
-        <v>26346.3902101445</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I192" t="n">
         <v>6050</v>
@@ -15965,10 +15965,10 @@
         <v>310</v>
       </c>
       <c r="G193" t="n">
-        <v>1492.63000396499</v>
+        <v>1913.26161500288</v>
       </c>
       <c r="H193" t="n">
-        <v>26346.3902101445</v>
+        <v>48639.8655951525</v>
       </c>
       <c r="I193" t="n">
         <v>6050</v>
